--- a/data/correlation.xlsx
+++ b/data/correlation.xlsx
@@ -488,16 +488,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244</v>
+        <v>0.179</v>
       </c>
       <c r="D3" t="n">
-        <v>0.423</v>
+        <v>-0.045</v>
       </c>
       <c r="E3" t="n">
-        <v>0.459</v>
+        <v>0.578</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003</v>
+        <v>0.5720000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.244</v>
+        <v>0.179</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.359</v>
+        <v>0.657</v>
       </c>
       <c r="E4" t="n">
-        <v>0.305</v>
+        <v>0.582</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.003</v>
+        <v>-0.5650000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.423</v>
+        <v>-0.045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.359</v>
+        <v>0.657</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.922</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.002</v>
+        <v>-0.6840000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.459</v>
+        <v>0.578</v>
       </c>
       <c r="C6" t="n">
-        <v>0.305</v>
+        <v>0.582</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.922</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.012</v>
+        <v>-0.241</v>
       </c>
     </row>
     <row r="7">
@@ -565,16 +565,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003</v>
+        <v>0.5720000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.003</v>
+        <v>-0.5650000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.002</v>
+        <v>-0.6840000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.012</v>
+        <v>-0.241</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>

--- a/data/correlation.xlsx
+++ b/data/correlation.xlsx
@@ -456,27 +456,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A2A</t>
+          <t>A2A.MI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Amplifon</t>
+          <t>AMP.MI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Azimut</t>
+          <t>AGEN.VI</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Banca Mediolanum</t>
+          <t>AZM.MI</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Banca Monte Paschi Siena</t>
+          <t>BMED.MI</t>
         </is>
       </c>
     </row>
@@ -488,16 +488,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.179</v>
+        <v>0.346339513936241</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.045</v>
+        <v>0.7630835450834851</v>
       </c>
       <c r="E3" t="n">
-        <v>0.578</v>
+        <v>0.624137238982676</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5720000000000001</v>
+        <v>0.6128522607010031</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.179</v>
+        <v>0.346339513936241</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.657</v>
+        <v>0.334437608956302</v>
       </c>
       <c r="E4" t="n">
-        <v>0.582</v>
+        <v>0.679230974070528</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5650000000000001</v>
+        <v>0.600445402193855</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.045</v>
+        <v>0.7630835450834851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.657</v>
+        <v>0.334437608956302</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.922</v>
+        <v>0.7752586224927721</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.6840000000000001</v>
+        <v>0.8152605440393441</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.578</v>
+        <v>0.624137238982676</v>
       </c>
       <c r="C6" t="n">
-        <v>0.582</v>
+        <v>0.679230974070528</v>
       </c>
       <c r="D6" t="n">
-        <v>0.922</v>
+        <v>0.7752586224927721</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.241</v>
+        <v>0.932200694331455</v>
       </c>
     </row>
     <row r="7">
@@ -565,16 +565,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5720000000000001</v>
+        <v>0.6128522607010031</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5650000000000001</v>
+        <v>0.600445402193855</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6840000000000001</v>
+        <v>0.8152605440393441</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.241</v>
+        <v>0.932200694331455</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>

--- a/data/correlation.xlsx
+++ b/data/correlation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,9 @@
       <c r="F1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -476,7 +479,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BMED.MI</t>
+          <t>ENEL.MI</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>DIA.MI</t>
         </is>
       </c>
     </row>
@@ -488,16 +496,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.346339513936241</v>
+        <v>0.500807136876071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7630835450834851</v>
+        <v>0.8350136489228631</v>
       </c>
       <c r="E3" t="n">
-        <v>0.624137238982676</v>
+        <v>0.7935673897696931</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6128522607010031</v>
+        <v>0.405492480725027</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.255031496537064</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +516,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.346339513936241</v>
+        <v>0.500807136876071</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.334437608956302</v>
+        <v>0.4151441337055281</v>
       </c>
       <c r="E4" t="n">
-        <v>0.679230974070528</v>
+        <v>0.666661334699811</v>
       </c>
       <c r="F4" t="n">
-        <v>0.600445402193855</v>
+        <v>0.611272771561658</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5598265338841421</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +539,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7630835450834851</v>
+        <v>0.8350136489228631</v>
       </c>
       <c r="C5" t="n">
-        <v>0.334437608956302</v>
+        <v>0.4151441337055281</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7752586224927721</v>
+        <v>0.8823640944827571</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8152605440393441</v>
+        <v>0.164124894648291</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.397571090911626</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +562,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.624137238982676</v>
+        <v>0.7935673897696931</v>
       </c>
       <c r="C6" t="n">
-        <v>0.679230974070528</v>
+        <v>0.666661334699811</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7752586224927721</v>
+        <v>0.8823640944827571</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.932200694331455</v>
+        <v>0.439958328569853</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.005103423026312</v>
       </c>
     </row>
     <row r="7">
@@ -565,18 +585,44 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6128522607010031</v>
+        <v>0.405492480725027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.600445402193855</v>
+        <v>0.611272771561658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8152605440393441</v>
+        <v>0.164124894648291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.932200694331455</v>
+        <v>0.439958328569853</v>
       </c>
       <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.447483792857844</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.255031496537064</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5598265338841421</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.397571090911626</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.005103423026312</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.447483792857844</v>
+      </c>
+      <c r="G8" t="n">
         <v>1</v>
       </c>
     </row>
